--- a/Finance/货币资产分配.xlsx
+++ b/Finance/货币资产分配.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Articles\Finance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2987944-CE0F-4D37-B5E0-52475311A112}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D0B5EF9-1541-4A48-8887-B9B4767CAA78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{5AC54893-5017-4563-BA14-567BCF97C539}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="2" xr2:uid="{5AC54893-5017-4563-BA14-567BCF97C539}"/>
   </bookViews>
   <sheets>
     <sheet name="持仓统计 - 240101" sheetId="3" r:id="rId1"/>
     <sheet name="持仓统计 - 240221" sheetId="7" r:id="rId2"/>
-    <sheet name="投资决策总结" sheetId="5" r:id="rId3"/>
+    <sheet name="持仓统计 - 241020" sheetId="8" r:id="rId3"/>
+    <sheet name="投资决策总结" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="94">
   <si>
     <t>收益率</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -332,12 +333,68 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>本金持仓分布（不含市值）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>中高风险投资（ETF+场外偏股基金）合计</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本金太少，直接用市值代替本金</t>
+  </si>
+  <si>
+    <t>货币基金（余额宝+微信零钱）</t>
+  </si>
+  <si>
+    <t>本金已包含收益，故计算收益率无意义</t>
+  </si>
+  <si>
+    <t>股票</t>
+  </si>
+  <si>
+    <t>- 招商银行</t>
+  </si>
+  <si>
+    <t>- 工商银行</t>
+  </si>
+  <si>
+    <t>- 周大生</t>
+  </si>
+  <si>
+    <t>债券基金</t>
+  </si>
+  <si>
+    <t>现金（银行活期存款+招商证券可用资金）</t>
+  </si>
+  <si>
+    <t>无风险投资（现金＋货币基金）</t>
+  </si>
+  <si>
+    <t>低风险投资（债券基金）</t>
+  </si>
+  <si>
+    <t>中高风险投资（股票+ETF+场外偏股基金）</t>
+  </si>
+  <si>
+    <t>计算规则为市值减去收益</t>
+  </si>
+  <si>
+    <t>无风险（现金、货币基金）</t>
+  </si>
+  <si>
+    <t>低风险（债券基金）</t>
+  </si>
+  <si>
+    <t>本金持仓分布（不含收益）</t>
+  </si>
+  <si>
+    <t>与上次统计相比</t>
+  </si>
+  <si>
+    <t>国债逆回购/货币基金</t>
+  </si>
+  <si>
+    <t>留出更多现金应对离职及变化的投资环境</t>
+  </si>
+  <si>
+    <t>备注</t>
   </si>
 </sst>
 </file>
@@ -345,20 +402,20 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="164" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -367,7 +424,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -376,14 +433,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF00B050"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -391,7 +448,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -400,7 +457,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -408,7 +465,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -416,7 +473,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -424,8 +481,54 @@
     <font>
       <sz val="11"/>
       <color rgb="FF00B050"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -532,7 +635,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -548,7 +651,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -563,7 +666,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -638,6 +741,15 @@
     <xf numFmtId="10" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -656,10 +768,34 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -680,9 +816,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 主题">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -720,7 +856,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -826,7 +962,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -968,7 +1104,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -979,29 +1115,29 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="37.5" customWidth="1"/>
-    <col min="2" max="2" width="16.6640625" customWidth="1"/>
-    <col min="3" max="3" width="16.6640625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="37.5" customWidth="1"/>
+    <col min="1" max="1" width="37.453125" customWidth="1"/>
+    <col min="2" max="2" width="16.6328125" customWidth="1"/>
+    <col min="3" max="3" width="16.6328125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="16.6328125" customWidth="1"/>
+    <col min="5" max="5" width="16.6328125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="37.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="35" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-    </row>
-    <row r="2" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+    </row>
+    <row r="2" spans="1:6" ht="15" thickBot="1">
       <c r="A2" s="9" t="s">
         <v>5</v>
       </c>
@@ -1021,7 +1157,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="14" customHeight="1">
       <c r="A3" s="24" t="s">
         <v>4</v>
       </c>
@@ -1039,11 +1175,11 @@
         <f>C3/B3</f>
         <v>0</v>
       </c>
-      <c r="F3" s="36" t="s">
+      <c r="F3" s="39" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6">
       <c r="A4" s="27" t="s">
         <v>50</v>
       </c>
@@ -1060,9 +1196,9 @@
       <c r="E4" s="28">
         <v>0</v>
       </c>
-      <c r="F4" s="36"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F4" s="39"/>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="27" t="s">
         <v>51</v>
       </c>
@@ -1082,7 +1218,7 @@
       </c>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6">
       <c r="A6" s="27" t="s">
         <v>57</v>
       </c>
@@ -1104,7 +1240,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6">
       <c r="A7" s="27" t="s">
         <v>54</v>
       </c>
@@ -1124,7 +1260,7 @@
       </c>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" s="6" customFormat="1">
       <c r="A8" s="27" t="s">
         <v>6</v>
       </c>
@@ -1146,7 +1282,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" s="6" customFormat="1">
       <c r="A9" s="27" t="s">
         <v>8</v>
       </c>
@@ -1166,7 +1302,7 @@
       </c>
       <c r="F9" s="19"/>
     </row>
-    <row r="10" spans="1:6" s="6" customFormat="1" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" s="6" customFormat="1" ht="15" thickBot="1">
       <c r="A10" s="31" t="s">
         <v>9</v>
       </c>
@@ -1186,7 +1322,7 @@
       </c>
       <c r="F10" s="19"/>
     </row>
-    <row r="11" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" s="7" customFormat="1">
       <c r="A11" s="7" t="s">
         <v>52</v>
       </c>
@@ -1207,7 +1343,7 @@
         <v>-0.1216142042037784</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" s="7" customFormat="1">
       <c r="A12" s="7" t="s">
         <v>66</v>
       </c>
@@ -1228,7 +1364,7 @@
         <v>-6.5756644747785083E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6">
       <c r="A13" s="7" t="s">
         <v>53</v>
       </c>
@@ -1249,19 +1385,19 @@
         <v>-0.19122201123447607</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6">
       <c r="A14" s="7"/>
       <c r="B14" s="7"/>
       <c r="C14" s="8"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="35" t="s">
+    <row r="15" spans="1:6">
+      <c r="A15" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="B15" s="35"/>
-      <c r="C15" s="35"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B15" s="38"/>
+      <c r="C15" s="38"/>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="9" t="s">
         <v>5</v>
       </c>
@@ -1272,7 +1408,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3">
       <c r="A17" s="6" t="s">
         <v>65</v>
       </c>
@@ -1285,7 +1421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3">
       <c r="A18" s="6" t="s">
         <v>61</v>
       </c>
@@ -1298,7 +1434,7 @@
         <v>0.31023882614333997</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3">
       <c r="A19" s="6" t="s">
         <v>60</v>
       </c>
@@ -1311,7 +1447,7 @@
         <v>5.2777798400206945E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3">
       <c r="A20" s="6" t="s">
         <v>59</v>
       </c>
@@ -1340,32 +1476,32 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{698AA16D-416C-4AB0-8D12-153663716F06}">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="37.5" customWidth="1"/>
-    <col min="2" max="2" width="16.6640625" customWidth="1"/>
-    <col min="3" max="3" width="16.6640625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="37.5" customWidth="1"/>
+    <col min="1" max="1" width="37.453125" customWidth="1"/>
+    <col min="2" max="2" width="16.6328125" customWidth="1"/>
+    <col min="3" max="3" width="16.6328125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="16.6328125" customWidth="1"/>
+    <col min="5" max="5" width="16.6328125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="37.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="35" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-    </row>
-    <row r="2" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+    </row>
+    <row r="2" spans="1:6" ht="15" thickBot="1">
       <c r="A2" s="9" t="s">
         <v>5</v>
       </c>
@@ -1385,7 +1521,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="14" customHeight="1">
       <c r="A3" s="24" t="s">
         <v>4</v>
       </c>
@@ -1403,11 +1539,11 @@
         <f>C3/B3</f>
         <v>0</v>
       </c>
-      <c r="F3" s="36" t="s">
+      <c r="F3" s="39" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6">
       <c r="A4" s="27" t="s">
         <v>50</v>
       </c>
@@ -1424,9 +1560,9 @@
       <c r="E4" s="28">
         <v>0</v>
       </c>
-      <c r="F4" s="36"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F4" s="39"/>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="27" t="s">
         <v>51</v>
       </c>
@@ -1446,9 +1582,9 @@
       </c>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6">
       <c r="A6" s="27" t="s">
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="B6" s="21">
         <v>201000</v>
@@ -1468,7 +1604,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6">
       <c r="A7" s="27" t="s">
         <v>54</v>
       </c>
@@ -1488,7 +1624,7 @@
       </c>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" s="6" customFormat="1">
       <c r="A8" s="27" t="s">
         <v>6</v>
       </c>
@@ -1511,7 +1647,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" s="6" customFormat="1">
       <c r="A9" s="27" t="s">
         <v>8</v>
       </c>
@@ -1531,7 +1667,7 @@
       </c>
       <c r="F9" s="19"/>
     </row>
-    <row r="10" spans="1:6" s="6" customFormat="1" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" s="6" customFormat="1" ht="15" thickBot="1">
       <c r="A10" s="31" t="s">
         <v>9</v>
       </c>
@@ -1553,7 +1689,7 @@
       </c>
       <c r="F10" s="19"/>
     </row>
-    <row r="11" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" s="7" customFormat="1">
       <c r="A11" s="7" t="s">
         <v>52</v>
       </c>
@@ -1574,7 +1710,7 @@
         <v>-0.13669324819880849</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" s="7" customFormat="1">
       <c r="A12" s="7" t="s">
         <v>66</v>
       </c>
@@ -1595,9 +1731,9 @@
         <v>-4.6999984333338554E-5</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6">
       <c r="A13" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B13" s="16">
         <f>SUM(B8:B10)</f>
@@ -1616,19 +1752,19 @@
         <v>-0.24698932202086807</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6">
       <c r="A14" s="7"/>
       <c r="B14" s="7"/>
       <c r="C14" s="8"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="35" t="s">
-        <v>73</v>
-      </c>
-      <c r="B15" s="35"/>
-      <c r="C15" s="35"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6">
+      <c r="A15" s="38" t="s">
+        <v>89</v>
+      </c>
+      <c r="B15" s="38"/>
+      <c r="C15" s="38"/>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="9" t="s">
         <v>5</v>
       </c>
@@ -1639,16 +1775,16 @@
         <v>64</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="6" t="s">
+    <row r="17" spans="1:3">
+      <c r="A17" s="48" t="s">
         <v>70</v>
       </c>
-      <c r="B17" s="20">
+      <c r="B17" s="49">
         <f>B11</f>
         <v>617206.71</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3">
       <c r="A18" s="6" t="s">
         <v>69</v>
       </c>
@@ -1657,55 +1793,60 @@
       </c>
       <c r="C18" s="1"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="7" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" s="6"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="B19" s="41">
+      <c r="B20" s="36">
         <f>B17-B18</f>
         <v>587206.71</v>
       </c>
-      <c r="C19" s="42">
-        <f>B19/B19</f>
+      <c r="C20" s="37">
+        <f>B20/B20</f>
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="6" t="s">
+    <row r="21" spans="1:3">
+      <c r="A21" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="B20" s="20">
+      <c r="B21" s="20">
         <f>SUM(B3:B6)-B18</f>
         <v>211204.9</v>
       </c>
-      <c r="C20" s="1">
-        <f>B20/B19</f>
+      <c r="C21" s="1">
+        <f>B21/B20</f>
         <v>0.35967725913758719</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="6" t="s">
+    <row r="22" spans="1:3">
+      <c r="A22" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B21" s="20">
+      <c r="B22" s="20">
         <f>SUM(B7)</f>
         <v>30000.01</v>
       </c>
-      <c r="C21" s="1">
-        <f>B21/B19</f>
+      <c r="C22" s="1">
+        <f>B22/B20</f>
         <v>5.1089351482376623E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="6" t="s">
+    <row r="23" spans="1:3">
+      <c r="A23" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="B22" s="20">
+      <c r="B23" s="20">
         <f>B13</f>
         <v>346001.80000000005</v>
       </c>
-      <c r="C22" s="1">
-        <f>B22/B19</f>
+      <c r="C23" s="1">
+        <f>B23/B20</f>
         <v>0.58923338938003633</v>
       </c>
     </row>
@@ -1721,6 +1862,492 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCBD86CD-72FB-487D-B5E2-575892476720}">
+  <dimension ref="A1:F28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="38.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.6328125" customWidth="1"/>
+    <col min="3" max="3" width="16.6328125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="16.6328125" customWidth="1"/>
+    <col min="5" max="5" width="16.6328125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="37.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+    </row>
+    <row r="2" spans="1:6" ht="15" thickBot="1">
+      <c r="A2" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="14" customHeight="1">
+      <c r="A3" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3" s="25">
+        <f>92867.6+57643.45</f>
+        <v>150511.04999999999</v>
+      </c>
+      <c r="C3" s="25">
+        <v>0</v>
+      </c>
+      <c r="D3" s="25">
+        <f>B3+C3</f>
+        <v>150511.04999999999</v>
+      </c>
+      <c r="E3" s="26">
+        <f>C3/B3</f>
+        <v>0</v>
+      </c>
+      <c r="F3" s="35" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4" s="21">
+        <f>524.82+25</f>
+        <v>549.82000000000005</v>
+      </c>
+      <c r="C4" s="21">
+        <v>0</v>
+      </c>
+      <c r="D4" s="21">
+        <f>B4</f>
+        <v>549.82000000000005</v>
+      </c>
+      <c r="E4" s="28">
+        <f>C4/B4</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="B5" s="21">
+        <f>D5-C5</f>
+        <v>235000</v>
+      </c>
+      <c r="C5" s="23">
+        <f>29.09-8.74-52.98</f>
+        <v>-32.629999999999995</v>
+      </c>
+      <c r="D5" s="21">
+        <f>80029.09+4991.26+149947.02</f>
+        <v>234967.37</v>
+      </c>
+      <c r="E5" s="30">
+        <f>C5/B5</f>
+        <v>-1.3885106382978722E-4</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="B6" s="21">
+        <f>SUM(B7:B9)</f>
+        <v>29801.200000000001</v>
+      </c>
+      <c r="C6" s="22">
+        <f>SUM(C7:C9)</f>
+        <v>4252.12</v>
+      </c>
+      <c r="D6" s="21">
+        <f>SUM(D7:D9)</f>
+        <v>34053.32</v>
+      </c>
+      <c r="E6" s="29">
+        <f>C6/B6</f>
+        <v>0.14268284498610795</v>
+      </c>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:6" hidden="1">
+      <c r="A7" s="44" t="s">
+        <v>78</v>
+      </c>
+      <c r="B7" s="45">
+        <f>31.91*500</f>
+        <v>15955</v>
+      </c>
+      <c r="C7" s="46">
+        <v>3570.14</v>
+      </c>
+      <c r="D7" s="45">
+        <f>B7+C7</f>
+        <v>19525.14</v>
+      </c>
+      <c r="E7" s="47">
+        <f>C7/B7</f>
+        <v>0.22376308367282982</v>
+      </c>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" hidden="1">
+      <c r="A8" s="44" t="s">
+        <v>79</v>
+      </c>
+      <c r="B8" s="45">
+        <f>6.153*400</f>
+        <v>2461.1999999999998</v>
+      </c>
+      <c r="C8" s="46">
+        <v>66.98</v>
+      </c>
+      <c r="D8" s="45">
+        <f>B8+C8</f>
+        <v>2528.1799999999998</v>
+      </c>
+      <c r="E8" s="47">
+        <f>C8/B8</f>
+        <v>2.721436697545913E-2</v>
+      </c>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:6" hidden="1">
+      <c r="A9" s="44" t="s">
+        <v>80</v>
+      </c>
+      <c r="B9" s="45">
+        <f>11.385*1000</f>
+        <v>11385</v>
+      </c>
+      <c r="C9" s="46">
+        <v>615</v>
+      </c>
+      <c r="D9" s="45">
+        <f>B9+C9</f>
+        <v>12000</v>
+      </c>
+      <c r="E9" s="47">
+        <f>C9/B9</f>
+        <v>5.4018445322793152E-2</v>
+      </c>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:6" s="6" customFormat="1">
+      <c r="A10" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="21">
+        <f>0.693*55000+0.986*9300</f>
+        <v>47284.800000000003</v>
+      </c>
+      <c r="C10" s="23">
+        <f>-4221.69-508.2</f>
+        <v>-4729.8899999999994</v>
+      </c>
+      <c r="D10" s="21">
+        <f>B10+C10</f>
+        <v>42554.91</v>
+      </c>
+      <c r="E10" s="30">
+        <f t="shared" ref="E10:E13" si="0">C10/B10</f>
+        <v>-0.10002981930768448</v>
+      </c>
+      <c r="F10" s="19"/>
+    </row>
+    <row r="11" spans="1:6" s="6" customFormat="1">
+      <c r="A11" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="21">
+        <f>9.3365*718.68</f>
+        <v>6709.9558199999992</v>
+      </c>
+      <c r="C11" s="22">
+        <v>363.25</v>
+      </c>
+      <c r="D11" s="21">
+        <f>B11+C11</f>
+        <v>7073.2058199999992</v>
+      </c>
+      <c r="E11" s="29">
+        <f t="shared" si="0"/>
+        <v>5.4135974922112085E-2</v>
+      </c>
+      <c r="F11" s="19"/>
+    </row>
+    <row r="12" spans="1:6" s="6" customFormat="1" ht="15" thickBot="1">
+      <c r="A12" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="32">
+        <f t="shared" ref="B12" si="1">D12-C12</f>
+        <v>196911.05</v>
+      </c>
+      <c r="C12" s="33">
+        <v>-18290.59</v>
+      </c>
+      <c r="D12" s="32">
+        <v>178620.46</v>
+      </c>
+      <c r="E12" s="34">
+        <f t="shared" si="0"/>
+        <v>-9.2887575379847917E-2</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" s="7" customFormat="1">
+      <c r="A13" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" s="16">
+        <f>SUM(B3:B6,B10:B12)</f>
+        <v>666767.87581999996</v>
+      </c>
+      <c r="C13" s="16">
+        <f t="shared" ref="C13:E13" si="2">SUM(C3:C6,C10:C12)</f>
+        <v>-18437.739999999998</v>
+      </c>
+      <c r="D13" s="16">
+        <f t="shared" si="2"/>
+        <v>648330.13581999997</v>
+      </c>
+      <c r="E13" s="18">
+        <f>C13/B13</f>
+        <v>-2.765241198419318E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" s="7" customFormat="1">
+      <c r="A14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="B14" s="16">
+        <f>B3+B4</f>
+        <v>151060.87</v>
+      </c>
+      <c r="C14" s="16">
+        <f>C3+C4</f>
+        <v>0</v>
+      </c>
+      <c r="D14" s="16">
+        <f>D3+D4</f>
+        <v>151060.87</v>
+      </c>
+      <c r="E14" s="8">
+        <f>C14/B14</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" s="7" customFormat="1">
+      <c r="A15" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B15" s="16">
+        <f>B5</f>
+        <v>235000</v>
+      </c>
+      <c r="C15" s="17">
+        <f t="shared" ref="C15:D15" si="3">C5</f>
+        <v>-32.629999999999995</v>
+      </c>
+      <c r="D15" s="16">
+        <f t="shared" si="3"/>
+        <v>234967.37</v>
+      </c>
+      <c r="E15" s="18">
+        <f>C15/B15</f>
+        <v>-1.3885106382978722E-4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B16" s="16">
+        <f>SUM(B6,B10:B12)</f>
+        <v>280707.00581999996</v>
+      </c>
+      <c r="C16" s="17">
+        <f>SUM(C6,C10:C12)</f>
+        <v>-18405.11</v>
+      </c>
+      <c r="D16" s="16">
+        <f>SUM(D6,D10:D12)</f>
+        <v>262301.89581999998</v>
+      </c>
+      <c r="E16" s="18">
+        <f>C16/B16</f>
+        <v>-6.5566977732654311E-2</v>
+      </c>
+      <c r="F16" s="20"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="8"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="38" t="s">
+        <v>89</v>
+      </c>
+      <c r="B18" s="38"/>
+      <c r="C18" s="38"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="F19" s="52" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="48" t="s">
+        <v>70</v>
+      </c>
+      <c r="B20" s="49">
+        <f>B13</f>
+        <v>666767.87581999996</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B21" s="20">
+        <v>50000</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="53">
+        <v>20000</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="6"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="1"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B23" s="36">
+        <f>B20-B21</f>
+        <v>616767.87581999996</v>
+      </c>
+      <c r="C23" s="37">
+        <f>B23/B23</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B24" s="20">
+        <f>B14-B21</f>
+        <v>101060.87</v>
+      </c>
+      <c r="C24" s="1">
+        <f>B24/B23</f>
+        <v>0.16385559942731845</v>
+      </c>
+      <c r="D24" s="50">
+        <f>C24-35.97%</f>
+        <v>-0.19584440057268152</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B25" s="20">
+        <f>B15</f>
+        <v>235000</v>
+      </c>
+      <c r="C25" s="1">
+        <f>B25/B23</f>
+        <v>0.38101854719259626</v>
+      </c>
+      <c r="D25" s="51">
+        <f>C25-5.11%</f>
+        <v>0.32991854719259628</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B26" s="20">
+        <f>B16</f>
+        <v>280707.00581999996</v>
+      </c>
+      <c r="C26" s="1">
+        <f>B26/B23</f>
+        <v>0.45512585338008532</v>
+      </c>
+      <c r="D26" s="50">
+        <f>C26-58.92%</f>
+        <v>-0.13407414661991474</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="B28" s="20"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A18:C18"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAB4A830-E525-41EC-BA7B-6C66CA66CBE9}">
   <dimension ref="A1:B27"/>
   <sheetViews>
@@ -1728,20 +2355,20 @@
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="41.6640625" style="12" customWidth="1"/>
-    <col min="2" max="2" width="83.33203125" style="4" customWidth="1"/>
-    <col min="3" max="16384" width="8.6640625" style="4"/>
+    <col min="1" max="1" width="41.6328125" style="12" customWidth="1"/>
+    <col min="2" max="2" width="83.36328125" style="4" customWidth="1"/>
+    <col min="3" max="16384" width="8.6328125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="38" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="38"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B1" s="41"/>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="13" t="s">
         <v>19</v>
       </c>
@@ -1749,35 +2376,35 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="37" t="s">
+    <row r="3" spans="1:2">
+      <c r="A3" s="40" t="s">
         <v>20</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="37"/>
+    <row r="4" spans="1:2">
+      <c r="A4" s="40"/>
       <c r="B4" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="37" t="s">
+    <row r="5" spans="1:2">
+      <c r="A5" s="40" t="s">
         <v>21</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="37"/>
+    <row r="6" spans="1:2" ht="43.5">
+      <c r="A6" s="40"/>
       <c r="B6" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2">
       <c r="A7" s="13" t="s">
         <v>22</v>
       </c>
@@ -1785,7 +2412,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2">
       <c r="A8" s="13" t="s">
         <v>33</v>
       </c>
@@ -1793,41 +2420,41 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="37" t="s">
+    <row r="9" spans="1:2">
+      <c r="A9" s="40" t="s">
         <v>2</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="28" x14ac:dyDescent="0.3">
-      <c r="A10" s="37"/>
+    <row r="10" spans="1:2" ht="43.5">
+      <c r="A10" s="40"/>
       <c r="B10" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="37" t="s">
+    <row r="11" spans="1:2">
+      <c r="A11" s="40" t="s">
         <v>1</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="28" x14ac:dyDescent="0.3">
-      <c r="A12" s="37"/>
+    <row r="12" spans="1:2" ht="43.5">
+      <c r="A12" s="40"/>
       <c r="B12" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="37"/>
+    <row r="13" spans="1:2">
+      <c r="A13" s="40"/>
       <c r="B13" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2">
       <c r="A14" s="13" t="s">
         <v>18</v>
       </c>
@@ -1835,7 +2462,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2">
       <c r="A15" s="13" t="s">
         <v>17</v>
       </c>
@@ -1843,7 +2470,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2">
       <c r="A16" s="13" t="s">
         <v>27</v>
       </c>
@@ -1851,41 +2478,41 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="39" t="s">
+    <row r="17" spans="1:2">
+      <c r="A17" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="39"/>
-    </row>
-    <row r="18" spans="1:2" ht="28" x14ac:dyDescent="0.3">
-      <c r="A18" s="40" t="s">
+      <c r="B17" s="42"/>
+    </row>
+    <row r="18" spans="1:2" ht="43.5">
+      <c r="A18" s="43" t="s">
         <v>41</v>
       </c>
       <c r="B18" s="14" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="40"/>
+    <row r="19" spans="1:2">
+      <c r="A19" s="43"/>
       <c r="B19" s="14" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="37" t="s">
+    <row r="20" spans="1:2">
+      <c r="A20" s="40" t="s">
         <v>3</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="28" x14ac:dyDescent="0.3">
-      <c r="A21" s="37"/>
+    <row r="21" spans="1:2" ht="43.5">
+      <c r="A21" s="40"/>
       <c r="B21" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" ht="29">
       <c r="A22" s="13" t="s">
         <v>31</v>
       </c>
@@ -1893,33 +2520,33 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="37" t="s">
+    <row r="23" spans="1:2">
+      <c r="A23" s="40" t="s">
         <v>32</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="37"/>
+    <row r="24" spans="1:2">
+      <c r="A24" s="40"/>
       <c r="B24" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="37"/>
+    <row r="25" spans="1:2" ht="43.5">
+      <c r="A25" s="40"/>
       <c r="B25" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="37"/>
+    <row r="26" spans="1:2">
+      <c r="A26" s="40"/>
       <c r="B26" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" s="15" customFormat="1">
       <c r="A27" s="13" t="s">
         <v>46</v>
       </c>
